--- a/4-from-excel-tables-to-r-data-frames/excel-tables.xlsx
+++ b/4-from-excel-tables-to-r-data-frames/excel-tables.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Google Drive\OReilly_Slides\R for Excel Users\4. From Excel tables to R data frames\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Google Drive\Webinar - R for Excel Users\Resources - R for Excel Users Webinar\4-from-excel-tables-to-r-data-frames\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14136" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14134"/>
   </bookViews>
   <sheets>
     <sheet name="iris-start" sheetId="3" r:id="rId1"/>
@@ -897,18 +897,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.07421875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.53515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -925,7 +925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>5.0999999999999996</v>
       </c>
@@ -942,7 +942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>4.9000000000000004</v>
       </c>
@@ -959,7 +959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>4.7</v>
       </c>
@@ -976,7 +976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4.5999999999999996</v>
       </c>
@@ -993,7 +993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5.4</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>4.5999999999999996</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>4.4000000000000004</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>4.9000000000000004</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>5.4</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>4.8</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>4.8</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>4.3</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>5.8</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>5.7</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>5.4</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>5.0999999999999996</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>5.7</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>5.0999999999999996</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>5.4</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>5.0999999999999996</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>4.5999999999999996</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>5.0999999999999996</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>4.8</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>5</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>5</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>5.2</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>5.2</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>4.7</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>4.8</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>5.4</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>5.2</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>5.5</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>4.9000000000000004</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>5</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>5.5</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>4.9000000000000004</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>4.4000000000000004</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>5.0999999999999996</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>4.5</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>4.4000000000000004</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>5</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>5.0999999999999996</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>4.8</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>5.0999999999999996</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>4.5999999999999996</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>5.3</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>5</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>7</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>6.4</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>6.9</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>5.5</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>6.5</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>5.7</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>6.3</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>4.9000000000000004</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>6.6</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>5.2</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>5</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>5.9</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>6</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>6.1</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>5.6</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>6.7</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>5.6</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>5.8</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>6.2</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>5.6</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>5.9</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>6.1</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>6.3</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>6.1</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>6.4</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>6.6</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>6.8</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>6.7</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>6</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>5.7</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>5.5</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>5.5</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>5.8</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>6</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>5.4</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>6</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>6.7</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>6.3</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>5.6</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>5.5</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>5.5</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>6.1</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>5.8</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>5</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>5.6</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>5.7</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>5.7</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>6.2</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>5.0999999999999996</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>5.7</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>6.3</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>5.8</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>7.1</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>6.3</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>6.5</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>7.6</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>4.9000000000000004</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>7.3</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>6.7</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>7.2</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>6.5</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>6.4</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>6.8</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>5.7</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>5.8</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>6.4</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>6.5</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>7.7</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>7.7</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>6</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>6.9</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>5.6</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>7.7</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>6.3</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>6.7</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>7.2</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>6.2</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>6.1</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>6.4</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>7.2</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>7.4</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>7.9</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>6.4</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>6.3</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>6.1</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>7.7</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>6.3</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>6.4</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>6</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>6.9</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>6.7</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>6.9</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>5.8</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>6.8</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>6.7</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>6.7</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>6.3</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>6.5</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>6.2</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>5.9</v>
       </c>
@@ -3482,32 +3482,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K153"/>
+  <dimension ref="A1:L153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.53515625" customWidth="1"/>
+    <col min="2" max="2" width="14.07421875" customWidth="1"/>
+    <col min="3" max="3" width="14.3046875" customWidth="1"/>
+    <col min="4" max="4" width="13.84375" customWidth="1"/>
+    <col min="5" max="5" width="9.84375" customWidth="1"/>
+    <col min="6" max="6" width="31.3828125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.53515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.3046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.07421875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="F1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(F4)</f>
+        <v>=[@[Petal.Length]]/[@[Petal.Width]]</v>
+      </c>
+      <c r="G1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(G4)</f>
+        <v>=IF([@[Petal.Length]]&gt;1,TRUE,FALSE)</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="F2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3530,7 +3541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>5.0999999999999996</v>
       </c>
@@ -3554,19 +3565,19 @@
         <f>IF(iris[[#This Row],[Petal.Length]]&gt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>10</v>
       </c>
-      <c r="J4">
-        <f>SUM(iris[Petal.Length])</f>
-        <v>563.70000000000039</v>
-      </c>
-      <c r="K4" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(J4)</f>
-        <v>=SUM(iris[Petal.Length])</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <f>SUM(iris[Petal.Width])</f>
+        <v>179.90000000000012</v>
+      </c>
+      <c r="L4" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(K4)</f>
+        <v>=SUM(iris[Petal.Width])</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4.9000000000000004</v>
       </c>
@@ -3590,19 +3601,19 @@
         <f>IF(iris[[#This Row],[Petal.Length]]&gt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>12</v>
       </c>
-      <c r="J5">
-        <f>INDEX(iris[],2,2)</f>
-        <v>3</v>
-      </c>
-      <c r="K5" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(J5)</f>
-        <v>=INDEX(iris,2,2)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <f>INDEX(iris[],2,3)</f>
+        <v>1.4</v>
+      </c>
+      <c r="L5" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(K5)</f>
+        <v>=INDEX(iris,2,3)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4.7</v>
       </c>
@@ -3626,15 +3637,19 @@
         <f>IF(iris[[#This Row],[Petal.Length]]&gt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>13</v>
       </c>
-      <c r="J6" t="str">
-        <f>INDEX(iris[#Headers],,3)</f>
+      <c r="K6" t="str">
+        <f>INDEX(iris[#Headers],3)</f>
         <v>Petal.Length</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(K6)</f>
+        <v>=INDEX(iris[#Headers],3)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>4.5999999999999996</v>
       </c>
@@ -3659,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3684,7 +3699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>5.4</v>
       </c>
@@ -3709,7 +3724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>4.5999999999999996</v>
       </c>
@@ -3734,7 +3749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>5</v>
       </c>
@@ -3759,7 +3774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>4.4000000000000004</v>
       </c>
@@ -3784,7 +3799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>4.9000000000000004</v>
       </c>
@@ -3809,7 +3824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>5.4</v>
       </c>
@@ -3834,7 +3849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>4.8</v>
       </c>
@@ -3859,7 +3874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>4.8</v>
       </c>
@@ -3884,7 +3899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>4.3</v>
       </c>
@@ -3909,7 +3924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>5.8</v>
       </c>
@@ -3934,7 +3949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>5.7</v>
       </c>
@@ -3959,7 +3974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>5.4</v>
       </c>
@@ -3984,7 +3999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>5.0999999999999996</v>
       </c>
@@ -4009,7 +4024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>5.7</v>
       </c>
@@ -4034,7 +4049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>5.0999999999999996</v>
       </c>
@@ -4059,7 +4074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>5.4</v>
       </c>
@@ -4084,7 +4099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>5.0999999999999996</v>
       </c>
@@ -4109,7 +4124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>4.5999999999999996</v>
       </c>
@@ -4134,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>5.0999999999999996</v>
       </c>
@@ -4159,7 +4174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>4.8</v>
       </c>
@@ -4184,7 +4199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>5</v>
       </c>
@@ -4209,7 +4224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>5</v>
       </c>
@@ -4234,7 +4249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>5.2</v>
       </c>
@@ -4259,7 +4274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>5.2</v>
       </c>
@@ -4284,7 +4299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>4.7</v>
       </c>
@@ -4309,7 +4324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>4.8</v>
       </c>
@@ -4334,7 +4349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>5.4</v>
       </c>
@@ -4359,7 +4374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>5.2</v>
       </c>
@@ -4384,7 +4399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>5.5</v>
       </c>
@@ -4409,7 +4424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>4.9000000000000004</v>
       </c>
@@ -4434,7 +4449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>5</v>
       </c>
@@ -4459,7 +4474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>5.5</v>
       </c>
@@ -4484,7 +4499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>4.9000000000000004</v>
       </c>
@@ -4509,7 +4524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>4.4000000000000004</v>
       </c>
@@ -4534,7 +4549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>5.0999999999999996</v>
       </c>
@@ -4559,7 +4574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>5</v>
       </c>
@@ -4584,7 +4599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>4.5</v>
       </c>
@@ -4609,7 +4624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>4.4000000000000004</v>
       </c>
@@ -4634,7 +4649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>5</v>
       </c>
@@ -4659,7 +4674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>5.0999999999999996</v>
       </c>
@@ -4684,7 +4699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>4.8</v>
       </c>
@@ -4709,7 +4724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>5.0999999999999996</v>
       </c>
@@ -4734,7 +4749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>4.5999999999999996</v>
       </c>
@@ -4759,7 +4774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>5.3</v>
       </c>
@@ -4784,7 +4799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>5</v>
       </c>
@@ -4809,7 +4824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>7</v>
       </c>
@@ -4834,7 +4849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>6.4</v>
       </c>
@@ -4859,7 +4874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>6.9</v>
       </c>
@@ -4884,7 +4899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>5.5</v>
       </c>
@@ -4909,7 +4924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>6.5</v>
       </c>
@@ -4934,7 +4949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>5.7</v>
       </c>
@@ -4959,7 +4974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>6.3</v>
       </c>
@@ -4984,7 +4999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>4.9000000000000004</v>
       </c>
@@ -5009,7 +5024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>6.6</v>
       </c>
@@ -5034,7 +5049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>5.2</v>
       </c>
@@ -5059,7 +5074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>5</v>
       </c>
@@ -5084,7 +5099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>5.9</v>
       </c>
@@ -5109,7 +5124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>6</v>
       </c>
@@ -5134,7 +5149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>6.1</v>
       </c>
@@ -5159,7 +5174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>5.6</v>
       </c>
@@ -5184,7 +5199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>6.7</v>
       </c>
@@ -5209,7 +5224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>5.6</v>
       </c>
@@ -5234,7 +5249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>5.8</v>
       </c>
@@ -5259,7 +5274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>6.2</v>
       </c>
@@ -5284,7 +5299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>5.6</v>
       </c>
@@ -5309,7 +5324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>5.9</v>
       </c>
@@ -5334,7 +5349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>6.1</v>
       </c>
@@ -5359,7 +5374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>6.3</v>
       </c>
@@ -5384,7 +5399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>6.1</v>
       </c>
@@ -5409,7 +5424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>6.4</v>
       </c>
@@ -5434,7 +5449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>6.6</v>
       </c>
@@ -5459,7 +5474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>6.8</v>
       </c>
@@ -5484,7 +5499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>6.7</v>
       </c>
@@ -5509,7 +5524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>6</v>
       </c>
@@ -5534,7 +5549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>5.7</v>
       </c>
@@ -5559,7 +5574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>5.5</v>
       </c>
@@ -5584,7 +5599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>5.5</v>
       </c>
@@ -5609,7 +5624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>5.8</v>
       </c>
@@ -5634,7 +5649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>6</v>
       </c>
@@ -5659,7 +5674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>5.4</v>
       </c>
@@ -5684,7 +5699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>6</v>
       </c>
@@ -5709,7 +5724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>6.7</v>
       </c>
@@ -5734,7 +5749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>6.3</v>
       </c>
@@ -5759,7 +5774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>5.6</v>
       </c>
@@ -5784,7 +5799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>5.5</v>
       </c>
@@ -5809,7 +5824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>5.5</v>
       </c>
@@ -5834,7 +5849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>6.1</v>
       </c>
@@ -5859,7 +5874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>5.8</v>
       </c>
@@ -5884,7 +5899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>5</v>
       </c>
@@ -5909,7 +5924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>5.6</v>
       </c>
@@ -5934,7 +5949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>5.7</v>
       </c>
@@ -5959,7 +5974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>5.7</v>
       </c>
@@ -5984,7 +5999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>6.2</v>
       </c>
@@ -6009,7 +6024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>5.0999999999999996</v>
       </c>
@@ -6034,7 +6049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>5.7</v>
       </c>
@@ -6059,7 +6074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>6.3</v>
       </c>
@@ -6084,7 +6099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>5.8</v>
       </c>
@@ -6109,7 +6124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>7.1</v>
       </c>
@@ -6134,7 +6149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>6.3</v>
       </c>
@@ -6159,7 +6174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>6.5</v>
       </c>
@@ -6184,7 +6199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>7.6</v>
       </c>
@@ -6209,7 +6224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>4.9000000000000004</v>
       </c>
@@ -6234,7 +6249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>7.3</v>
       </c>
@@ -6259,7 +6274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>6.7</v>
       </c>
@@ -6284,7 +6299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>7.2</v>
       </c>
@@ -6309,7 +6324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>6.5</v>
       </c>
@@ -6334,7 +6349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>6.4</v>
       </c>
@@ -6359,7 +6374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>6.8</v>
       </c>
@@ -6384,7 +6399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>5.7</v>
       </c>
@@ -6409,7 +6424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>5.8</v>
       </c>
@@ -6434,7 +6449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>6.4</v>
       </c>
@@ -6459,7 +6474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>6.5</v>
       </c>
@@ -6484,7 +6499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>7.7</v>
       </c>
@@ -6509,7 +6524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>7.7</v>
       </c>
@@ -6534,7 +6549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>6</v>
       </c>
@@ -6559,7 +6574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>6.9</v>
       </c>
@@ -6584,7 +6599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>5.6</v>
       </c>
@@ -6609,7 +6624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>7.7</v>
       </c>
@@ -6634,7 +6649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>6.3</v>
       </c>
@@ -6659,7 +6674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>6.7</v>
       </c>
@@ -6684,7 +6699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>7.2</v>
       </c>
@@ -6709,7 +6724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>6.2</v>
       </c>
@@ -6734,7 +6749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>6.1</v>
       </c>
@@ -6759,7 +6774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>6.4</v>
       </c>
@@ -6784,7 +6799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>7.2</v>
       </c>
@@ -6809,7 +6824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>7.4</v>
       </c>
@@ -6834,7 +6849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>7.9</v>
       </c>
@@ -6859,7 +6874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>6.4</v>
       </c>
@@ -6884,7 +6899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>6.3</v>
       </c>
@@ -6909,7 +6924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>6.1</v>
       </c>
@@ -6934,7 +6949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>7.7</v>
       </c>
@@ -6959,7 +6974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>6.3</v>
       </c>
@@ -6984,7 +6999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>6.4</v>
       </c>
@@ -7009,7 +7024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>6</v>
       </c>
@@ -7034,7 +7049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>6.9</v>
       </c>
@@ -7059,7 +7074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>6.7</v>
       </c>
@@ -7084,7 +7099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>6.9</v>
       </c>
@@ -7109,7 +7124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>5.8</v>
       </c>
@@ -7134,7 +7149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>6.8</v>
       </c>
@@ -7159,7 +7174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>6.7</v>
       </c>
@@ -7184,7 +7199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>6.7</v>
       </c>
@@ -7209,7 +7224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>6.3</v>
       </c>
@@ -7234,7 +7249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>6.5</v>
       </c>
@@ -7259,7 +7274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>6.2</v>
       </c>
@@ -7284,7 +7299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>5.9</v>
       </c>
